--- a/fgt-tables/fgt_regiao_sm.xlsx
+++ b/fgt-tables/fgt_regiao_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.04385375139938169</v>
+        <v>0.04184805085077817</v>
       </c>
       <c r="C2">
-        <v>0.001982379608675331</v>
+        <v>0.00182260482758006</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1629634394104612</v>
+        <v>0.1413147618737045</v>
       </c>
       <c r="C3">
-        <v>0.002068293771455277</v>
+        <v>0.001846019295771839</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1484316441149382</v>
+        <v>0.1225837217679183</v>
       </c>
       <c r="C4">
-        <v>0.003542234071522582</v>
+        <v>0.002975274088728154</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.04744380306785413</v>
+        <v>0.04293327166706364</v>
       </c>
       <c r="C5">
-        <v>0.00161901407863672</v>
+        <v>0.001357542417309844</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.03292538988220615</v>
+        <v>0.03119915676325567</v>
       </c>
       <c r="C6">
-        <v>0.001379594572092936</v>
+        <v>0.001273838233403459</v>
       </c>
     </row>
   </sheetData>
